--- a/results/pvalue_SIDER_rare_transporter_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_transporter_AUPR+AUROCperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8.347</t>
+          <t>14.356</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.692</t>
+          <t>16.068</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.912</t>
+          <t>8.521</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.952</t>
+          <t>15.688</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22.599</t>
+          <t>22.704</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22.676</t>
+          <t>22.842</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25.834</t>
+          <t>26.025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26.613</t>
+          <t>26.882</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>21.825</t>
+          <t>19.67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
